--- a/Dataset/land_price.xlsx
+++ b/Dataset/land_price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARN\DATA SCIENCE\2 WORKSPACE\4 PROJECT\2 JABODETABEK HOUSE PRICING\jabodetabekhousepricing\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C4CB4-E09C-4790-AC63-9566F0A42AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C78F1F-449F-466D-B7F7-46CFF27AF7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1A0A1D59-3AF8-4D8E-8A01-AE8B60879FF4}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>900000</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E4">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>800000</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>700000</v>
       </c>
       <c r="E8">
-        <v>1200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>900000</v>
       </c>
       <c r="E9">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>10000000</v>
       </c>
       <c r="E10">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>8000000</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>14000000</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
